--- a/derbyPoolConsolation.xlsx
+++ b/derbyPoolConsolation.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewdegroff/Desktop/code/DerbySite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E42A1DF9-AE54-8E45-9856-09A0AA756A5C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAD1107-8605-2147-B00B-6E971A1DA325}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8680" yWindow="1560" windowWidth="22140" windowHeight="17440" xr2:uid="{6F8B3F3C-4B9A-694D-AA96-1D9083016738}"/>
+    <workbookView xWindow="9800" yWindow="5400" windowWidth="22140" windowHeight="17440" xr2:uid="{6F8B3F3C-4B9A-694D-AA96-1D9083016738}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -101,19 +101,19 @@
     <t>moustakas</t>
   </si>
   <si>
-    <t>hex</t>
-  </si>
-  <si>
-    <t>dec</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
     <t>blue</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>puce</t>
+  </si>
+  <si>
+    <t>cobalt</t>
+  </si>
+  <si>
+    <t>yellow</t>
   </si>
 </sst>
 </file>
@@ -200,20 +200,20 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,64 +528,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB40EEB1-150F-424B-B720-8A6C7A4CC881}">
-  <dimension ref="B2:N23"/>
+  <dimension ref="B2:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.83203125" style="5"/>
-    <col min="4" max="4" width="10.83203125" style="6"/>
-    <col min="6" max="6" width="10.83203125" style="6"/>
-    <col min="8" max="8" width="10.83203125" style="6"/>
+    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="10.83203125" style="3"/>
+    <col min="8" max="8" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C2" s="3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C2" s="6">
         <v>2018</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="1">
+      <c r="D2" s="7"/>
+      <c r="E2" s="8">
         <v>2017</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8">
         <v>2016</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8">
         <v>2015</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="8"/>
+      <c r="L2">
+        <v>2015</v>
+      </c>
       <c r="M2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I3" t="s">
@@ -594,198 +594,192 @@
       <c r="J3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3">
+        <v>2016</v>
+      </c>
+      <c r="M3" t="s">
         <v>25</v>
       </c>
-      <c r="M3">
-        <f>INT(N3/16)*10+MOD(N3, 16)</f>
-        <v>92</v>
-      </c>
-      <c r="N3">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>39</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4">
+        <v>2017</v>
+      </c>
+      <c r="M4" t="s">
         <v>26</v>
       </c>
-      <c r="M4">
-        <f>INT(N4/16)*10+MOD(N4, 16)</f>
-        <v>130</v>
-      </c>
-      <c r="N4">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C5" s="5" t="s">
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>43</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5">
+        <v>2018</v>
+      </c>
+      <c r="M5" t="s">
         <v>27</v>
       </c>
-      <c r="M5">
-        <f>INT(N5/16)*10+MOD(N5, 16)</f>
-        <v>50</v>
-      </c>
-      <c r="N5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C6" s="5" t="s">
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C7" s="5" t="s">
+      <c r="L6">
+        <v>2019</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C8" s="5" t="s">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C9" s="5" t="s">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C10" s="5" t="s">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="7" t="s">
+    <row r="11" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="5">
         <v>26</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="F11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C13" s="5" t="s">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C14" s="5" t="s">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C15" s="5" t="s">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C16" s="5" t="s">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="3">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="7" t="s">
+    <row r="19" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="5">
         <v>26</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="F19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="3">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
